--- a/biology/Biologie cellulaire et moléculaire/Étienne_Pays/Étienne_Pays.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Étienne_Pays/Étienne_Pays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Pays</t>
+          <t>Étienne_Pays</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Pays, né le 2 novembre 1948, est un biologiste moléculaire belge et professeur à l'Université libre de Bruxelles. Ses intérêts de recherche portent sur les trypanosomes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Pays</t>
+          <t>Étienne_Pays</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Pays obtient un doctorat en zoologie à l'Université libre de Bruxelles (ULB) en 1974, puis une agrégation de l'enseignement supérieur en 1984. Depuis janvier 1998, il est professeur à l'ULB et, depuis octobre 1992, directeur du laboratoire de parasitologie moléculaire. De 1993 à 1996, il a été président de la Société belge de protozoologie.
-Vie privée
-Étienne Pays est marié, a une fille et habite à Nil-Saint-Vincent
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Pays</t>
+          <t>Étienne_Pays</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Pays est marié, a une fille et habite à Nil-Saint-Vincent
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Étienne_Pays</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Pays</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Prix, honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1996 : prix Francqui en sciences biologiques et médicales pour ses travaux sur la biologie moléculaire
 1997 : Prix Unesco Carlos J. Finlay pour la microbiologie (UNESCO, Paris)
